--- a/biology/Zoologie/Aspidoscelis_exsanguis/Aspidoscelis_exsanguis.xlsx
+++ b/biology/Zoologie/Aspidoscelis_exsanguis/Aspidoscelis_exsanguis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis exsanguis est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis exsanguis est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans le Sud-Ouest du Texas, dans le sud-est de l'Arizona et au Nouveau-Mexique ;
 au Mexique dans le Nord du Chihuahua et dans le Nord-Est du Sonora.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce parténogénique issue de l'hybridation de ces trois espèces : Aspidoscelis inornata, Aspidoscelis septemvittata et de Aspidoscelis costata[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce parténogénique issue de l'hybridation de ces trois espèces : Aspidoscelis inornata, Aspidoscelis septemvittata et de Aspidoscelis costata.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lowe, 1956 : A new species and a new subspecies of whiptail lizards (genus Cnemidophorus) of the Inland Southwest. Bulletin of the Chicago Academy of Sciences, vol. 10, no 9, p. 137-150.</t>
         </is>
